--- a/CASUAL/LA CENRO/RODRIGUEZ, ARNEL.xlsx
+++ b/CASUAL/LA CENRO/RODRIGUEZ, ARNEL.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -273,6 +273,15 @@
   </si>
   <si>
     <t>UT(0-5-12)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>02/10,11/2024</t>
   </si>
 </sst>
 </file>
@@ -978,7 +987,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1021,7 +1030,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,7 +1094,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1145,7 +1154,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1211,7 +1220,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1283,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1381,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1431,7 +1440,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1505,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1548,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1623,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1809,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1866,7 +1875,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1924,7 +1933,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +1999,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2055,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2130,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2173,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2239,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2295,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2391,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2729,12 +2738,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A52" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomLeft" activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,7 +2913,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.668999999999997</v>
+        <v>33.418999999999997</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -2914,7 +2923,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>75.75</v>
+        <v>79.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4536,13 +4545,15 @@
         <v>45231</v>
       </c>
       <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
+      <c r="C86" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="41"/>
       <c r="E86" s="10"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="41"/>
       <c r="I86" s="10"/>
@@ -4554,13 +4565,15 @@
         <v>45261</v>
       </c>
       <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
+      <c r="C87" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="41"/>
       <c r="E87" s="10"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="41"/>
       <c r="I87" s="10"/>
@@ -4568,31 +4581,34 @@
       <c r="K87" s="21"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
+      <c r="A88" s="50" t="s">
+        <v>77</v>
+      </c>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
       <c r="D88" s="41"/>
       <c r="E88" s="10"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G88" s="14"/>
       <c r="H88" s="41"/>
       <c r="I88" s="10"/>
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
+      <c r="A89" s="42">
+        <v>45292</v>
+      </c>
       <c r="B89" s="21"/>
-      <c r="C89" s="14"/>
+      <c r="C89" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="41"/>
       <c r="E89" s="10"/>
       <c r="F89" s="21"/>
-      <c r="G89" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="41"/>
       <c r="I89" s="10"/>
@@ -4600,8 +4616,12 @@
       <c r="K89" s="21"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
-      <c r="B90" s="21"/>
+      <c r="A90" s="42">
+        <v>45323</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="C90" s="14"/>
       <c r="D90" s="41"/>
       <c r="E90" s="10"/>
@@ -4613,10 +4633,14 @@
       <c r="H90" s="41"/>
       <c r="I90" s="10"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="K90" s="21" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
+      <c r="A91" s="42">
+        <v>45352</v>
+      </c>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
       <c r="D91" s="41"/>
@@ -4632,7 +4656,9 @@
       <c r="K91" s="21"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
+      <c r="A92" s="42">
+        <v>45383</v>
+      </c>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
       <c r="D92" s="41"/>
@@ -4648,7 +4674,9 @@
       <c r="K92" s="21"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
+      <c r="A93" s="42">
+        <v>45413</v>
+      </c>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
       <c r="D93" s="41"/>
@@ -4664,7 +4692,9 @@
       <c r="K93" s="21"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
+      <c r="A94" s="42">
+        <v>45444</v>
+      </c>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
       <c r="D94" s="41"/>
@@ -4680,7 +4710,9 @@
       <c r="K94" s="21"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
+      <c r="A95" s="42">
+        <v>45474</v>
+      </c>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
       <c r="D95" s="41"/>
@@ -4696,7 +4728,9 @@
       <c r="K95" s="21"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
+      <c r="A96" s="42">
+        <v>45505</v>
+      </c>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
       <c r="D96" s="41"/>
@@ -4712,7 +4746,9 @@
       <c r="K96" s="21"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
+      <c r="A97" s="42">
+        <v>45536</v>
+      </c>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
       <c r="D97" s="41"/>
@@ -4728,7 +4764,9 @@
       <c r="K97" s="21"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
+      <c r="A98" s="42">
+        <v>45566</v>
+      </c>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
       <c r="D98" s="41"/>
@@ -4744,7 +4782,9 @@
       <c r="K98" s="21"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
+      <c r="A99" s="42">
+        <v>45597</v>
+      </c>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
       <c r="D99" s="41"/>
@@ -4760,7 +4800,9 @@
       <c r="K99" s="21"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
+      <c r="A100" s="42">
+        <v>45627</v>
+      </c>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
       <c r="D100" s="41"/>
@@ -5080,7 +5122,7 @@
       <c r="K119" s="21"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="51"/>
+      <c r="A120" s="42"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
       <c r="D120" s="41"/>
@@ -5096,7 +5138,7 @@
       <c r="K120" s="21"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="42"/>
+      <c r="A121" s="51"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
       <c r="D121" s="41"/>
@@ -5336,20 +5378,36 @@
       <c r="K135" s="21"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="43"/>
-      <c r="B136" s="16"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="45"/>
+      <c r="A136" s="42"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="41"/>
       <c r="E136" s="10"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="44" t="str">
+      <c r="F136" s="21"/>
+      <c r="G136" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H136" s="45"/>
+      <c r="H136" s="41"/>
       <c r="I136" s="10"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="16"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="21"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="43"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="45"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
